--- a/biology/Médecine/Classe_ATC_A10/Classe_ATC_A10.xlsx
+++ b/biology/Médecine/Classe_ATC_A10/Classe_ATC_A10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A10, dénommée « Médicaments utilisés en cas de diabète », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA10[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A10, dénommée « Médicaments utilisés en cas de diabète », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA10. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,30 +525,137 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A10AB Insulines et analogues pour injection, à action rapide
-A10AB01 Insuline (humaine)
+          <t>A10AB Insulines et analogues pour injection, à action rapide</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A10AB01 Insuline (humaine)
 A10AB02 Insuline (bœuf)
 A10AB03  Insuline (porc)
 A10AB04 Insuline lispro
 A10AB05 Insuline aspart
 A10AB06 Insuline glulisine
-A10AB30 Associations
-A10AC Insulines et analogues pour injection, à action intermédiaire
-A10AC01 Insuline (humaine)
+A10AB30 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A10A Insulines et analogues</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A10AC Insulines et analogues pour injection, à action intermédiaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A10AC01 Insuline (humaine)
 A10AC02 Insuline (bœuf)
 A10AC03  Insuline (porc)
 A10AC04 Insuline lispro
-A10AC30 Associations
-A10AD Insulines et analogues pour injection, à action intermédiaire ou longue combinées avec insulines à action rapide
-A10AD01 Insuline (humaine)
+A10AC30 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A10A Insulines et analogues</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A10AD Insulines et analogues pour injection, à action intermédiaire ou longue combinées avec insulines à action rapide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A10AD01 Insuline (humaine)
 A10AD02 Insuline (bœuf)
 A10AD03  Insuline (porc)
 A10AD04 Insuline lispro
 A10AD05 Insuline aspart
 A10AD06 Insuline dégludec et insuline aspart
-A10AD30 Associations
-A10AE Insulines et analogues pour injection, à action lente
-A10AE01 Insuline (humaine)
+A10AD30 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A10A Insulines et analogues</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A10AE Insulines et analogues pour injection, à action lente</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A10AE01 Insuline (humaine)
 A10AE02 Insuline (bœuf)
 A10AE03  Insuline (porc))
 A10AE04 Insuline glargine
@@ -544,44 +663,117 @@
 A10AE06 Insuline dégludec
 A10AE30 Associations
 A10AE54 Insuline glargine et lixisénatide
-A10AE56 Insuline dégludec et liraglutide
-A10AF Insulines et analogues pour inhalation
-A10AF01 Insuline (humaine)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+A10AE56 Insuline dégludec et liraglutide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A10A Insulines et analogues</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A10AF Insulines et analogues pour inhalation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A10AF01 Insuline (humaine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A10BA Biguanides
-A10BA01 Phenformine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A10BA Biguanides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A10BA01 Phenformine
 A10BA02 Metformine
-A10BA03 Buformine
-A10BB Sulfonylurées
-A10BB01 Glibenclamide
+A10BA03 Buformine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A10BB Sulfonylurées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A10BB01 Glibenclamide
 A10BB02 Chlorpropamide
 A10BB03  Tolbutamide
 A10BB04 Glibornuride
@@ -593,11 +785,79 @@
 A10BB10 Métahexamide
 A10BB11 Glisoxepide
 A10BB12 Glimépiride
-A10BB31 Acétohexamide
-A10BC Sulfonamides (hétérocycliques)
-A10BC01 Glymidine
-A10BD Associations de médicaments oraux réduisant la glycémie
-A10BD01 Phénformine (en) et sulfonamides
+A10BB31 Acétohexamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A10BC Sulfonamides (hétérocycliques)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A10BC01 Glymidine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A10BD Associations de médicaments oraux réduisant la glycémie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A10BD01 Phénformine (en) et sulfonamides
 A10BD02 Métformine et sulfonamides
 A10BD03  Métformine et rosiglitazone
 A10BD04 Glimépiride et rosiglitazone
@@ -618,40 +878,244 @@
 A10BD19 Linagliptine et empagliflozine
 A10BD20 Métformine et empagliflozine
 A10BD21 Saxagliptine et dapagliflozine
-A10BD22 Métformine et évogliptine
-A10BF Inhibteurs d'alpha-glycosidase
-A10BF01 Acarbose
+A10BD22 Métformine et évogliptine</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A10BF Inhibteurs d'alpha-glycosidase</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>A10BF01 Acarbose
 A10BF02 Miglitol
-A10BF03  Voglibose
-A10BG Thiazolidinédiones
-A10BG01 Troglitazone
+A10BF03  Voglibose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A10BG Thiazolidinédiones</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A10BG01 Troglitazone
 A10BG02 Rosiglitazone
-A10BG03 Pioglitazone
-A10BH Inhibiteurs de la dipeptidyl peptidase-4 (DPP-4)
-A10BH01 Sitagliptine
+A10BG03 Pioglitazone</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A10BH Inhibiteurs de la dipeptidyl peptidase-4 (DPP-4)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A10BH01 Sitagliptine
 A10BH02 Vildagliptine
 A10BH03 Saxagliptine
 A10BH04 Alogliptine
 A10BH05 Linagliptine
 A10BH06 Gémigliptine
 A10BH07 Évogliptine
-A10BH51 Sitagliptine et simvastatine
-A10BJ Analogues du Glucagon-like peptide-1 (GLP-1)
-A10BJ01 Exénatide
+A10BH51 Sitagliptine et simvastatine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A10BJ Analogues du Glucagon-like peptide-1 (GLP-1)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A10BJ01 Exénatide
 A10BJ02 Liraglutide
 A10BJ03 Lixisénatide
 A10BJ04 Albiglutide
 A10BJ05 Dulaglutide
-A10BJ06 Sémaglutide
-A10BK Inhibiteurs du Sodium-Glucose Co-Transporteur 2 (SGLT2)
-A10BK01 Dapagliflozine
+A10BJ06 Sémaglutide</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A10BK Inhibiteurs du Sodium-Glucose Co-Transporteur 2 (SGLT2)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A10BK01 Dapagliflozine
 A10BK02 Canagliflozine
 A10BK03 Empagliflozine
 A10BK04  Ertugliflozine
 A10BK05 Ipragliflozine
-A10BK06 Sotagliflozine
-A10BX Autres médicament réduisant la glycémie, autres que les insulines
-A10BX01 Gomme de guar
+A10BK06 Sotagliflozine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A10B Médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A10BX Autres médicament réduisant la glycémie, autres que les insulines</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A10BX01 Gomme de guar
 A10BX02 Répaglinide
 A10BX03 Natéglinide
 A10BX05 Pramlintide
@@ -660,34 +1124,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_A10</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>A10X Autres médicament utilisés dans le cas de diabètes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A10XA Inhibiteurs d'aldose réductase
-A10XA01 Tolrestat</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A10XA Inhibiteurs d'aldose réductase</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A10XA01 Tolrestat</t>
         </is>
       </c>
     </row>
